--- a/Code/Results/Cases/Case_8_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9800648462346544</v>
+        <v>0.9756186651927123</v>
       </c>
       <c r="C2">
-        <v>0.1984703482526129</v>
+        <v>0.2249254358597597</v>
       </c>
       <c r="D2">
-        <v>0.2281870063199563</v>
+        <v>0.2428307980011795</v>
       </c>
       <c r="E2">
-        <v>0.1864142066526355</v>
+        <v>0.1940343075813047</v>
       </c>
       <c r="F2">
-        <v>0.8316056023859772</v>
+        <v>0.7549492770513808</v>
       </c>
       <c r="G2">
-        <v>0.0008225175959037757</v>
+        <v>0.01590473232793327</v>
       </c>
       <c r="H2">
-        <v>0.001632454700673192</v>
+        <v>0.0006507874900947286</v>
       </c>
       <c r="I2">
-        <v>0.00393041226167723</v>
+        <v>0.001683028392661434</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3723418434368497</v>
+        <v>0.3135172526553553</v>
       </c>
       <c r="L2">
-        <v>0.2033538329014632</v>
+        <v>0.1552431172947557</v>
       </c>
       <c r="M2">
-        <v>1.124950682782384</v>
+        <v>0.08599272293706051</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.207723935253</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.161431311317443</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.874332235850858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.622391755015769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8540030155791385</v>
+        <v>0.8533613398817579</v>
       </c>
       <c r="C3">
-        <v>0.1738270300722604</v>
+        <v>0.1944132565311492</v>
       </c>
       <c r="D3">
-        <v>0.2005101172677968</v>
+        <v>0.2137123778065444</v>
       </c>
       <c r="E3">
-        <v>0.1646620327274633</v>
+        <v>0.1721109946170643</v>
       </c>
       <c r="F3">
-        <v>0.8000505020098672</v>
+        <v>0.7262421236104544</v>
       </c>
       <c r="G3">
-        <v>0.0008253525726256885</v>
+        <v>0.01934206824740758</v>
       </c>
       <c r="H3">
-        <v>0.002948926324302326</v>
+        <v>0.001456057123839449</v>
       </c>
       <c r="I3">
-        <v>0.005469195986176789</v>
+        <v>0.002415175668696534</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.375977225691674</v>
+        <v>0.3177070639017856</v>
       </c>
       <c r="L3">
-        <v>0.1803756743722218</v>
+        <v>0.1602506091275302</v>
       </c>
       <c r="M3">
-        <v>0.9811707348630421</v>
+        <v>0.08559758409575302</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1853086569639828</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.0128063244847</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.849071163004808</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.600117595447813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7763535620592847</v>
+        <v>0.7779273240812472</v>
       </c>
       <c r="C4">
-        <v>0.158889947991554</v>
+        <v>0.1759730629225089</v>
       </c>
       <c r="D4">
-        <v>0.1835884253606679</v>
+        <v>0.1959389424306579</v>
       </c>
       <c r="E4">
-        <v>0.1513197444365346</v>
+        <v>0.1586658751869088</v>
       </c>
       <c r="F4">
-        <v>0.7811303528387938</v>
+        <v>0.7088330191080274</v>
       </c>
       <c r="G4">
-        <v>0.0008271544337165038</v>
+        <v>0.02169904122669342</v>
       </c>
       <c r="H4">
-        <v>0.003989431344615935</v>
+        <v>0.002136747165134567</v>
       </c>
       <c r="I4">
-        <v>0.006625006196301797</v>
+        <v>0.003014296778843573</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3784369033685699</v>
+        <v>0.3203796131236452</v>
       </c>
       <c r="L4">
-        <v>0.1662439641254423</v>
+        <v>0.1634285146252807</v>
       </c>
       <c r="M4">
-        <v>0.8929394421005838</v>
+        <v>0.08583374214745376</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1715089079010212</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9215938927508489</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.834931049694816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.587065240479134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7443192190132777</v>
+        <v>0.7467786016047171</v>
       </c>
       <c r="C5">
-        <v>0.1533202883981915</v>
+        <v>0.1690127424120647</v>
       </c>
       <c r="D5">
-        <v>0.1768630253020973</v>
+        <v>0.1888733478776032</v>
       </c>
       <c r="E5">
-        <v>0.1459210554865358</v>
+        <v>0.1532254576378982</v>
       </c>
       <c r="F5">
-        <v>0.7728441185180444</v>
+        <v>0.7011466080123014</v>
       </c>
       <c r="G5">
-        <v>0.0008279087727877441</v>
+        <v>0.0227255839298991</v>
       </c>
       <c r="H5">
-        <v>0.004471294403742276</v>
+        <v>0.00246023684781127</v>
       </c>
       <c r="I5">
-        <v>0.007227528479087919</v>
+        <v>0.003383462816058724</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3790745818800261</v>
+        <v>0.3211198991936008</v>
       </c>
       <c r="L5">
-        <v>0.1604484941684277</v>
+        <v>0.1645570755026498</v>
       </c>
       <c r="M5">
-        <v>0.85738768703348</v>
+        <v>0.08596145541752431</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1658467230147522</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8848165089782469</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.827625092256923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.580164709826633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7385966904861618</v>
+        <v>0.7412155180558102</v>
       </c>
       <c r="C6">
-        <v>0.1529777127356908</v>
+        <v>0.1684551567159502</v>
       </c>
       <c r="D6">
-        <v>0.1759361502894592</v>
+        <v>0.187888397633742</v>
       </c>
       <c r="E6">
-        <v>0.1450694834230823</v>
+        <v>0.1523661771114178</v>
       </c>
       <c r="F6">
-        <v>0.7706374359150914</v>
+        <v>0.6990879650758401</v>
       </c>
       <c r="G6">
-        <v>0.0008280404502535427</v>
+        <v>0.02290736460972764</v>
       </c>
       <c r="H6">
-        <v>0.004556918123455711</v>
+        <v>0.002518101587318133</v>
       </c>
       <c r="I6">
-        <v>0.007436407654361155</v>
+        <v>0.003564428631765537</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3786711809371077</v>
+        <v>0.320789813595006</v>
       </c>
       <c r="L6">
-        <v>0.1594499744075719</v>
+        <v>0.1645122014579492</v>
       </c>
       <c r="M6">
-        <v>0.8519720368182391</v>
+        <v>0.08588145480017939</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1648714591251803</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8791836788211072</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.824141608869496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.576916084997478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7748276321682397</v>
+        <v>0.7769240370520833</v>
       </c>
       <c r="C7">
-        <v>0.1604001199648479</v>
+        <v>0.1766453964493735</v>
       </c>
       <c r="D7">
-        <v>0.1840146422435822</v>
+        <v>0.197278856940784</v>
       </c>
       <c r="E7">
-        <v>0.1513696469696839</v>
+        <v>0.1589268507253152</v>
       </c>
       <c r="F7">
-        <v>0.7787336396766094</v>
+        <v>0.7027594446011847</v>
       </c>
       <c r="G7">
-        <v>0.0008271791893710301</v>
+        <v>0.02214786561212057</v>
       </c>
       <c r="H7">
-        <v>0.004001423788422498</v>
+        <v>0.002152390014340644</v>
       </c>
       <c r="I7">
-        <v>0.006905479008836757</v>
+        <v>0.003332005280962669</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3770481608726328</v>
+        <v>0.3176388046010175</v>
       </c>
       <c r="L7">
-        <v>0.1660683226234454</v>
+        <v>0.1620711866154423</v>
       </c>
       <c r="M7">
-        <v>0.8937949624897499</v>
+        <v>0.08513668575399169</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1711637962293366</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9216353004355824</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.828586370830806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.571001243401383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9351840945375329</v>
+        <v>0.933713986744209</v>
       </c>
       <c r="C8">
-        <v>0.1920455927448046</v>
+        <v>0.2136145551430815</v>
       </c>
       <c r="D8">
-        <v>0.2193164142773867</v>
+        <v>0.2365587609624384</v>
       </c>
       <c r="E8">
-        <v>0.1790740902256331</v>
+        <v>0.1873525499035864</v>
       </c>
       <c r="F8">
-        <v>0.8176154825809121</v>
+        <v>0.7296098220640133</v>
       </c>
       <c r="G8">
-        <v>0.0008235005765991073</v>
+        <v>0.01909919194239595</v>
       </c>
       <c r="H8">
-        <v>0.002041796640408045</v>
+        <v>0.0009072022234888344</v>
       </c>
       <c r="I8">
-        <v>0.004742235681591822</v>
+        <v>0.002293204408413629</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3717163086279811</v>
+        <v>0.3084797921197477</v>
       </c>
       <c r="L8">
-        <v>0.1953053786996222</v>
+        <v>0.1540124204944533</v>
       </c>
       <c r="M8">
-        <v>1.077141469847533</v>
+        <v>0.08382867003178518</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1992974233010329</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.109347448019946</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.857118715117892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.57374098016966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.249847744893174</v>
+        <v>1.238551175076537</v>
       </c>
       <c r="C9">
-        <v>0.2529531323297789</v>
+        <v>0.2887631591872264</v>
       </c>
       <c r="D9">
-        <v>0.2882797616076545</v>
+        <v>0.3102147566162188</v>
       </c>
       <c r="E9">
-        <v>0.2333662889280177</v>
+        <v>0.2422866398897483</v>
       </c>
       <c r="F9">
-        <v>0.9018179250984275</v>
+        <v>0.8017976831999718</v>
       </c>
       <c r="G9">
-        <v>0.0008167393863389543</v>
+        <v>0.01219568195287302</v>
       </c>
       <c r="H9">
-        <v>0.0001485954972724191</v>
+        <v>3.525862934949942E-08</v>
       </c>
       <c r="I9">
-        <v>0.001862770068556507</v>
+        <v>0.001009441430825042</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3656205169934559</v>
+        <v>0.2989526707194941</v>
       </c>
       <c r="L9">
-        <v>0.2527146837481808</v>
+        <v>0.1427273135467111</v>
       </c>
       <c r="M9">
-        <v>1.435040592884206</v>
+        <v>0.08710295107046484</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2550399784410899</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.478468906121492</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.935706284873788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.631394086579832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.480323657356308</v>
+        <v>1.464426914953037</v>
       </c>
       <c r="C10">
-        <v>0.2983253170099545</v>
+        <v>0.3389166796786185</v>
       </c>
       <c r="D10">
-        <v>0.3326665343418398</v>
+        <v>0.363353951401308</v>
       </c>
       <c r="E10">
-        <v>0.263194271006725</v>
+        <v>0.2736694816542595</v>
       </c>
       <c r="F10">
-        <v>0.94996201902417</v>
+        <v>0.8202248209743104</v>
       </c>
       <c r="G10">
-        <v>0.0008121546140532226</v>
+        <v>0.01639072862080049</v>
       </c>
       <c r="H10">
-        <v>0.0002708326283173967</v>
+        <v>0.0005346877995160426</v>
       </c>
       <c r="I10">
-        <v>0.001118228710969227</v>
+        <v>0.001081719201187603</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3574396469538499</v>
+        <v>0.2810796119382815</v>
       </c>
       <c r="L10">
-        <v>0.2804481867708688</v>
+        <v>0.1309711971295684</v>
       </c>
       <c r="M10">
-        <v>1.698199945137105</v>
+        <v>0.08720144630006388</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2805231793884246</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.744367862499075</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.970854657612392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.596633853787097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.589064713296125</v>
+        <v>1.580484961820105</v>
       </c>
       <c r="C11">
-        <v>0.3088941509100209</v>
+        <v>0.3355590647569215</v>
       </c>
       <c r="D11">
-        <v>0.2940123080171304</v>
+        <v>0.3333323054827133</v>
       </c>
       <c r="E11">
-        <v>0.194313281104364</v>
+        <v>0.2055034241106171</v>
       </c>
       <c r="F11">
-        <v>0.8401058056588369</v>
+        <v>0.6818449738264292</v>
       </c>
       <c r="G11">
-        <v>0.0008109463814816575</v>
+        <v>0.05040337485228719</v>
       </c>
       <c r="H11">
-        <v>0.018813652631259</v>
+        <v>0.01901134389458647</v>
       </c>
       <c r="I11">
-        <v>0.001526732581155876</v>
+        <v>0.00175171380421002</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3166770409721309</v>
+        <v>0.2362569008149453</v>
       </c>
       <c r="L11">
-        <v>0.1823755079682172</v>
+        <v>0.1138466165232437</v>
       </c>
       <c r="M11">
-        <v>1.807246038946715</v>
+        <v>0.07179532521110588</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1810969467026808</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.841261421542697</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.748667035408658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.307898246496066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.634333037181648</v>
+        <v>1.631358978747812</v>
       </c>
       <c r="C12">
-        <v>0.3054180126371193</v>
+        <v>0.3227067309638585</v>
       </c>
       <c r="D12">
-        <v>0.2536083320156024</v>
+        <v>0.2941455806551545</v>
       </c>
       <c r="E12">
-        <v>0.1393805172062201</v>
+        <v>0.1497202085879863</v>
       </c>
       <c r="F12">
-        <v>0.7460057064059455</v>
+        <v>0.5858636816677105</v>
       </c>
       <c r="G12">
-        <v>0.0008107877981428646</v>
+        <v>0.07506765709371166</v>
       </c>
       <c r="H12">
-        <v>0.05744221740164335</v>
+        <v>0.05758081060206877</v>
       </c>
       <c r="I12">
-        <v>0.001508669465415835</v>
+        <v>0.001756605347513762</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2883684800778212</v>
+        <v>0.2121774768975904</v>
       </c>
       <c r="L12">
-        <v>0.1140930338513968</v>
+        <v>0.1056659156923407</v>
       </c>
       <c r="M12">
-        <v>1.841172053816791</v>
+        <v>0.06233394297490236</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.113115096116374</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.867141121823693</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.572803525297772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.131706505881283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.631188830814267</v>
+        <v>1.63134218581547</v>
       </c>
       <c r="C13">
-        <v>0.2934803492308333</v>
+        <v>0.3064945963074592</v>
       </c>
       <c r="D13">
-        <v>0.2106041947070025</v>
+        <v>0.2453780958325495</v>
       </c>
       <c r="E13">
-        <v>0.09243983812564238</v>
+        <v>0.1007110826781243</v>
       </c>
       <c r="F13">
-        <v>0.6550994262168217</v>
+        <v>0.5162230482245107</v>
       </c>
       <c r="G13">
-        <v>0.00081144831219759</v>
+        <v>0.06957690636382452</v>
       </c>
       <c r="H13">
-        <v>0.1131458131757626</v>
+        <v>0.11321149611571</v>
       </c>
       <c r="I13">
-        <v>0.00151627356714279</v>
+        <v>0.001685722652987387</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2656847051348485</v>
+        <v>0.2002053368860235</v>
       </c>
       <c r="L13">
-        <v>0.06476845722256641</v>
+        <v>0.1020798688614084</v>
       </c>
       <c r="M13">
-        <v>1.821037331618925</v>
+        <v>0.05671089024058418</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06507406076121569</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.843730226461361</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.412287823577728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.026786024121535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.606699358486139</v>
+        <v>1.60793811480454</v>
       </c>
       <c r="C14">
-        <v>0.2818388741188471</v>
+        <v>0.2939496754947299</v>
       </c>
       <c r="D14">
-        <v>0.1800737806249515</v>
+        <v>0.208427937706233</v>
       </c>
       <c r="E14">
-        <v>0.06479314911088707</v>
+        <v>0.07138352177542373</v>
       </c>
       <c r="F14">
-        <v>0.5936124540184906</v>
+        <v>0.4772155710767336</v>
       </c>
       <c r="G14">
-        <v>0.0008122799209665711</v>
+        <v>0.05322092661299749</v>
       </c>
       <c r="H14">
-        <v>0.1624821550548177</v>
+        <v>0.1624817458687033</v>
       </c>
       <c r="I14">
-        <v>0.001634113086915079</v>
+        <v>0.001707595196421607</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2524380252415739</v>
+        <v>0.1961023271200393</v>
       </c>
       <c r="L14">
-        <v>0.0417232796433531</v>
+        <v>0.1010452965637647</v>
       </c>
       <c r="M14">
-        <v>1.782930939571486</v>
+        <v>0.05422152601734886</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04306620553365548</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.805355340343397</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.307540845150243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9789116153571484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.589873927917296</v>
+        <v>1.590932004592418</v>
       </c>
       <c r="C15">
-        <v>0.2778713640578587</v>
+        <v>0.2906018826105878</v>
       </c>
       <c r="D15">
-        <v>0.171995192665122</v>
+        <v>0.1977998828575238</v>
       </c>
       <c r="E15">
-        <v>0.05859308115634221</v>
+        <v>0.06468474182798545</v>
       </c>
       <c r="F15">
-        <v>0.5781200750394646</v>
+        <v>0.4704909132717319</v>
       </c>
       <c r="G15">
-        <v>0.0008126729845874665</v>
+        <v>0.044904431021763</v>
       </c>
       <c r="H15">
-        <v>0.174993574157611</v>
+        <v>0.1749621239544012</v>
       </c>
       <c r="I15">
-        <v>0.001798392874160726</v>
+        <v>0.001839843738694391</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2498004945699535</v>
+        <v>0.1965110347869068</v>
       </c>
       <c r="L15">
-        <v>0.03756553740971391</v>
+        <v>0.1012819310687196</v>
       </c>
       <c r="M15">
-        <v>1.762740107806877</v>
+        <v>0.0540519664655239</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03921978502711632</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.785946307337753</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.282517597075952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9756865897003024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.490169411479286</v>
+        <v>1.48776240945142</v>
       </c>
       <c r="C16">
-        <v>0.2619131055178769</v>
+        <v>0.2813375563574709</v>
       </c>
       <c r="D16">
-        <v>0.1631627229725297</v>
+        <v>0.1803564945732177</v>
       </c>
       <c r="E16">
-        <v>0.05683386272790614</v>
+        <v>0.06197029963412248</v>
       </c>
       <c r="F16">
-        <v>0.5757484467313176</v>
+        <v>0.4970348225708037</v>
       </c>
       <c r="G16">
-        <v>0.0008145006382007348</v>
+        <v>0.01715103033535215</v>
       </c>
       <c r="H16">
-        <v>0.1623020292540645</v>
+        <v>0.1620925893026026</v>
       </c>
       <c r="I16">
-        <v>0.002188800813567759</v>
+        <v>0.001955808909157142</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2568982101292505</v>
+        <v>0.2109392304397204</v>
       </c>
       <c r="L16">
-        <v>0.03724919634561985</v>
+        <v>0.1066371097655781</v>
       </c>
       <c r="M16">
-        <v>1.654313678187094</v>
+        <v>0.05838599854106974</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0396836414941717</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.684411057937439</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.296761672059816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.059629603533594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.426852564128751</v>
+        <v>1.422120181679617</v>
       </c>
       <c r="C17">
-        <v>0.2559337353933131</v>
+        <v>0.2797331491208013</v>
       </c>
       <c r="D17">
-        <v>0.1721972285265423</v>
+        <v>0.1867082905774851</v>
       </c>
       <c r="E17">
-        <v>0.06905234705455143</v>
+        <v>0.07419876528992475</v>
       </c>
       <c r="F17">
-        <v>0.6058814326877098</v>
+        <v>0.5362882549498522</v>
       </c>
       <c r="G17">
-        <v>0.0008154677106037065</v>
+        <v>0.01147244728108188</v>
       </c>
       <c r="H17">
-        <v>0.1245698511544617</v>
+        <v>0.1242515522372116</v>
       </c>
       <c r="I17">
-        <v>0.002470067177768875</v>
+        <v>0.002069265905335627</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.269199268483332</v>
+        <v>0.2243747883789045</v>
       </c>
       <c r="L17">
-        <v>0.04716432653829017</v>
+        <v>0.1118394076644869</v>
       </c>
       <c r="M17">
-        <v>1.591633487126131</v>
+        <v>0.06272411403047506</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04989501305040633</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.625850048882626</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.362334379876415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.146309576607322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.388584283267647</v>
+        <v>1.381044385129201</v>
       </c>
       <c r="C18">
-        <v>0.2564372194290172</v>
+        <v>0.2850532075581498</v>
       </c>
       <c r="D18">
-        <v>0.1986722801906637</v>
+        <v>0.2134501067475583</v>
       </c>
       <c r="E18">
-        <v>0.09955899175760408</v>
+        <v>0.1052811716695388</v>
       </c>
       <c r="F18">
-        <v>0.6718007824157723</v>
+        <v>0.6008988735072052</v>
       </c>
       <c r="G18">
-        <v>0.0008157464749617289</v>
+        <v>0.01010500585406859</v>
       </c>
       <c r="H18">
-        <v>0.07172569404345097</v>
+        <v>0.07140120884997003</v>
       </c>
       <c r="I18">
-        <v>0.002322911704009556</v>
+        <v>0.001819567749592466</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.289337469207922</v>
+        <v>0.2416198377451533</v>
       </c>
       <c r="L18">
-        <v>0.07704891918276857</v>
+        <v>0.1184931225392916</v>
       </c>
       <c r="M18">
-        <v>1.559700335776256</v>
+        <v>0.06879796572951413</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07984225373800058</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.597977912755681</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.488661564219967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.267295680429939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.371117778690802</v>
+        <v>1.360229660095058</v>
       </c>
       <c r="C19">
-        <v>0.2651502726354664</v>
+        <v>0.2995362932450405</v>
       </c>
       <c r="D19">
-        <v>0.2403970052375968</v>
+        <v>0.2573070102860555</v>
       </c>
       <c r="E19">
-        <v>0.1503251300691666</v>
+        <v>0.1570473178342233</v>
       </c>
       <c r="F19">
-        <v>0.7633806605271758</v>
+        <v>0.6846975200640273</v>
       </c>
       <c r="G19">
-        <v>0.0008154162491155246</v>
+        <v>0.009491925951659042</v>
       </c>
       <c r="H19">
-        <v>0.02637761960853879</v>
+        <v>0.02616992167202881</v>
       </c>
       <c r="I19">
-        <v>0.002377602549216817</v>
+        <v>0.00194582549530864</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3144056414847398</v>
+        <v>0.2611810493889593</v>
       </c>
       <c r="L19">
-        <v>0.1359219955824571</v>
+        <v>0.1259066553487873</v>
       </c>
       <c r="M19">
-        <v>1.557304930567881</v>
+        <v>0.07607626698591652</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1385558976834602</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.599943856611333</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.654663206331733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.411797754697332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.416347344683913</v>
+        <v>1.400125160067148</v>
       </c>
       <c r="C20">
-        <v>0.2913583133431246</v>
+        <v>0.3341681071114522</v>
       </c>
       <c r="D20">
-        <v>0.3223214826656005</v>
+        <v>0.347221443519615</v>
       </c>
       <c r="E20">
-        <v>0.2553064053957428</v>
+        <v>0.2645663962662965</v>
       </c>
       <c r="F20">
-        <v>0.9294968943559354</v>
+        <v>0.821551883717504</v>
       </c>
       <c r="G20">
-        <v>0.0008133811889974435</v>
+        <v>0.01014949015011446</v>
       </c>
       <c r="H20">
-        <v>0.0001299838850199464</v>
+        <v>0.0003098574051803027</v>
       </c>
       <c r="I20">
-        <v>0.002039274266560476</v>
+        <v>0.001953078267684205</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3551532468656902</v>
+        <v>0.286965260639338</v>
       </c>
       <c r="L20">
-        <v>0.2722552909113176</v>
+        <v>0.1343725066310757</v>
       </c>
       <c r="M20">
-        <v>1.633229496642798</v>
+        <v>0.08759499703263529</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2735605905787963</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.681457119324648</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.940989367617419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.622083558631999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.592755365064988</v>
+        <v>1.581450725000735</v>
       </c>
       <c r="C21">
-        <v>0.3278948966741382</v>
+        <v>0.3582551116325305</v>
       </c>
       <c r="D21">
-        <v>0.3672213410290226</v>
+        <v>0.4186529538676211</v>
       </c>
       <c r="E21">
-        <v>0.2942226583405656</v>
+        <v>0.3093852139609368</v>
       </c>
       <c r="F21">
-        <v>0.9927246033335848</v>
+        <v>0.7901810264644169</v>
       </c>
       <c r="G21">
-        <v>0.0008097825507639623</v>
+        <v>0.07107711284731266</v>
       </c>
       <c r="H21">
-        <v>0.00046788865527847</v>
+        <v>0.0008392906133984912</v>
       </c>
       <c r="I21">
-        <v>0.001696547121245118</v>
+        <v>0.002077825533700839</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3569067998694848</v>
+        <v>0.255559170826249</v>
       </c>
       <c r="L21">
-        <v>0.3160082527264336</v>
+        <v>0.1200551882956713</v>
       </c>
       <c r="M21">
-        <v>1.837062280466114</v>
+        <v>0.08041893684900359</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3121057881611762</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.87297435687401</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.017628783494075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.462469957402931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.709808216869135</v>
+        <v>1.702862938691226</v>
       </c>
       <c r="C22">
-        <v>0.3492024052750651</v>
+        <v>0.3696205018810303</v>
       </c>
       <c r="D22">
-        <v>0.3924129124904994</v>
+        <v>0.4633658270729484</v>
       </c>
       <c r="E22">
-        <v>0.3143016980931748</v>
+        <v>0.3337751305539101</v>
       </c>
       <c r="F22">
-        <v>1.029791200877298</v>
+        <v>0.761697404592347</v>
       </c>
       <c r="G22">
-        <v>0.0008075142364163587</v>
+        <v>0.1596726151650714</v>
       </c>
       <c r="H22">
-        <v>0.001061279374579449</v>
+        <v>0.001448091107741245</v>
       </c>
       <c r="I22">
-        <v>0.001431251073897855</v>
+        <v>0.001930734152938207</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3578671696039102</v>
+        <v>0.2348019408885662</v>
       </c>
       <c r="L22">
-        <v>0.3374253553320585</v>
+        <v>0.1115286281146002</v>
       </c>
       <c r="M22">
-        <v>1.968116088374757</v>
+        <v>0.07516342030704948</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3298762524058674</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.994270940485876</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.063348996109852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.348710432258159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.648679681085952</v>
+        <v>1.637967363847451</v>
       </c>
       <c r="C23">
-        <v>0.3358565031166165</v>
+        <v>0.3639326676365897</v>
       </c>
       <c r="D23">
-        <v>0.3783272269765803</v>
+        <v>0.4360167256485568</v>
       </c>
       <c r="E23">
-        <v>0.3034276051546883</v>
+        <v>0.3199471481084544</v>
       </c>
       <c r="F23">
-        <v>1.012594748040328</v>
+        <v>0.7881931053700058</v>
       </c>
       <c r="G23">
-        <v>0.0008087078158428968</v>
+        <v>0.09398114291904136</v>
       </c>
       <c r="H23">
-        <v>0.0007181322087672637</v>
+        <v>0.001113544036690728</v>
       </c>
       <c r="I23">
-        <v>0.001240850697500129</v>
+        <v>0.001633991670314749</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3588991161820196</v>
+        <v>0.2498083395087249</v>
       </c>
       <c r="L23">
-        <v>0.3261055760638243</v>
+        <v>0.1172320835769796</v>
       </c>
       <c r="M23">
-        <v>1.896510173709828</v>
+        <v>0.07973471093389151</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3209462282804623</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.930037493758277</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.045921502020349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.436854960504803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.415004511228403</v>
+        <v>1.39832408162664</v>
       </c>
       <c r="C24">
-        <v>0.2889691884512047</v>
+        <v>0.3323368840864021</v>
       </c>
       <c r="D24">
-        <v>0.3262499440130853</v>
+        <v>0.3512744070243343</v>
       </c>
       <c r="E24">
-        <v>0.2626375954032625</v>
+        <v>0.272001387568146</v>
       </c>
       <c r="F24">
-        <v>0.9446862624786974</v>
+        <v>0.8358689496869829</v>
       </c>
       <c r="G24">
-        <v>0.0008133403670414479</v>
+        <v>0.009915699152146296</v>
       </c>
       <c r="H24">
-        <v>1.90065399559014E-05</v>
+        <v>0.0002179596757749813</v>
       </c>
       <c r="I24">
-        <v>0.001531157937879613</v>
+        <v>0.001358909799795249</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3609469135366403</v>
+        <v>0.2917476035347697</v>
       </c>
       <c r="L24">
-        <v>0.2831605888746793</v>
+        <v>0.1361672868149526</v>
       </c>
       <c r="M24">
-        <v>1.628602561448673</v>
+        <v>0.0893850766890516</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.284448878966387</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.677398790769161</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.972555488557731</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.650796412617154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.162859349104792</v>
+        <v>1.153742538538836</v>
       </c>
       <c r="C25">
-        <v>0.239195749725809</v>
+        <v>0.2724794740024095</v>
       </c>
       <c r="D25">
-        <v>0.270486362367464</v>
+        <v>0.2897676671531428</v>
       </c>
       <c r="E25">
-        <v>0.218873617000888</v>
+        <v>0.2273041570956593</v>
       </c>
       <c r="F25">
-        <v>0.874489716974125</v>
+        <v>0.7836331593288008</v>
       </c>
       <c r="G25">
-        <v>0.0008185412880581797</v>
+        <v>0.01271276040471614</v>
       </c>
       <c r="H25">
-        <v>0.0004378545491072749</v>
+        <v>6.393806084270537E-05</v>
       </c>
       <c r="I25">
-        <v>0.002891336094641872</v>
+        <v>0.00172952522662051</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3645937437100137</v>
+        <v>0.3013852528652379</v>
       </c>
       <c r="L25">
-        <v>0.2370048683360153</v>
+        <v>0.1456687550499698</v>
       </c>
       <c r="M25">
-        <v>1.340537898613178</v>
+        <v>0.08579036777937077</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2400557546434783</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.382020922578675</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.90200335341811</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.619311319812638</v>
       </c>
     </row>
   </sheetData>
